--- a/participants/participant_22/participant_22_task_orders.xlsx
+++ b/participants/participant_22/participant_22_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730723183174" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730760098119" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730760158083" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730760748088" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730761378398" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911924804595" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911941134646" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291194116457" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291194194458" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291194270457" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730722792826.csv</t>
+          <t>go_stims-1650291192428458.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730723012807.csv</t>
+          <t>GNG_stims-1650291192447459.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730723022838.csv</t>
+          <t>go_stims-16502911924494581.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730723173158.csv</t>
+          <t>GNG_stims-16502911924794586.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730745798123.csv</t>
+          <t>TB-16502911940894568.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730732628102.csv</t>
+          <t>ZB-match_3-1650291192624456.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498730728448157.csv</t>
+          <t>TB-16502911933174572.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730725708454.csv</t>
+          <t>OB-16502911931834574.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730759988103.csv</t>
+          <t>OB-16502911927814565.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730724672842.csv</t>
+          <t>ZB-match_4-16502911925754573.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498730754828448.csv</t>
+          <t>OB-16502911927594569.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873073905808.csv</t>
+          <t>TB-16502911938944657.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16498730740528452.csv</t>
+          <t>ZB-match_9-16502911925444615.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730760418985.csv</t>
+          <t>MM_stims-1650291194144462.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873076016812.csv</t>
+          <t>ZM_stims-1650291194118466.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730760578098.csv</t>
+          <t>MM_stims-16502911941754632.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730760428095.csv</t>
+          <t>ZM_stims-16502911941464565.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730760738406.csv</t>
+          <t>MM_stims-1650291194191458.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730760588145.csv</t>
+          <t>ZM_stims-16502911941774597.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-164987307610584.csv</t>
+          <t>SAT_stims-16502911941994593.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730760898075.csv</t>
+          <t>vSAT_stims-16502911942564585.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873076121842.csv</t>
+          <t>SAT_stims-16502911942244577.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730760778084.csv</t>
+          <t>vSAT_stims-16502911942394576.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_22/participant_22_task_orders.xlsx
+++ b/participants/participant_22/participant_22_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911924804595" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911941134646" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291194116457" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291194194458" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291194270457" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778286298823" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778303419137" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778303438828" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778303908784" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778304538765" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291192428458.csv</t>
+          <t>go_stims-16504778285868807.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291192447459.csv</t>
+          <t>GNG_stims-16504778286118772.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911924494581.csv</t>
+          <t>go_stims-165047782861388.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911924794586.csv</t>
+          <t>GNG_stims-16504778286278772.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502911940894568.csv</t>
+          <t>ZB-match_6-16504778289208817.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650291192624456.csv</t>
+          <t>TB-16504778303239126.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911933174572.csv</t>
+          <t>OB-16504778301508794.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502911931834574.csv</t>
+          <t>OB-1650477829524913.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502911927814565.csv</t>
+          <t>TB-16504778302879121.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502911925754573.csv</t>
+          <t>TB-16504778302548795.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911927594569.csv</t>
+          <t>ZB-match_1-1650477829000878.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502911938944657.csv</t>
+          <t>OB-1650477830040911.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502911925444615.csv</t>
+          <t>ZB-match_0-1650477829122879.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291194144462.csv</t>
+          <t>MM_stims-1650477830357895.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291194118466.csv</t>
+          <t>ZM_stims-16504778303458781.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911941754632.csv</t>
+          <t>MM_stims-16504778303739119.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911941464565.csv</t>
+          <t>ZM_stims-1650477830358881.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650291194191458.csv</t>
+          <t>MM_stims-1650477830389907.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911941774597.csv</t>
+          <t>ZM_stims-165047783037488.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911941994593.csv</t>
+          <t>SAT_stims-1650477830393881.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911942564585.csv</t>
+          <t>SAT_stims-16504778304058962.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911942244577.csv</t>
+          <t>vSAT_stims-16504778304219108.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911942394576.csv</t>
+          <t>vSAT_stims-1650477830437911.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_22/participant_22_task_orders.xlsx
+++ b/participants/participant_22/participant_22_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778286298823" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778303419137" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778303438828" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778303908784" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778304538765" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961167546022" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996120474577" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996120474577" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961205385995" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961206026" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778285868807.csv</t>
+          <t>go_stims-16509961167225628.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778286118772.csv</t>
+          <t>GNG_stims-16509961167385623.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-165047782861388.csv</t>
+          <t>go_stims-16509961167385623.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778286278772.csv</t>
+          <t>GNG_stims-16509961167546022.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16504778289208817.csv</t>
+          <t>ZB-match_2-16509961178265638.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504778303239126.csv</t>
+          <t>TB-16509961201785607.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778301508794.csv</t>
+          <t>ZB-match_2-16509961177706017.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650477829524913.csv</t>
+          <t>ZB-match_5-16509961175945609.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778302879121.csv</t>
+          <t>OB-1650996118050599.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778302548795.csv</t>
+          <t>OB-16509961186106014.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650477829000878.csv</t>
+          <t>TB-165099612045056.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650477830040911.csv</t>
+          <t>OB-1650996118322566.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650477829122879.csv</t>
+          <t>TB-16509961198586001.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477830357895.csv</t>
+          <t>MM_stims-16509961205065947.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778303458781.csv</t>
+          <t>ZM_stims-16509961204825668.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778303739119.csv</t>
+          <t>MM_stims-16509961205225663.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477830358881.csv</t>
+          <t>ZM_stims-16509961205065947.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477830389907.csv</t>
+          <t>MM_stims-16509961205385995.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-165047783037488.csv</t>
+          <t>ZM_stims-16509961205225663.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477830393881.csv</t>
+          <t>vSAT_stims-16509961205865636.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778304058962.csv</t>
+          <t>SAT_stims-16509961205546007.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778304219108.csv</t>
+          <t>SAT_stims-16509961205385995.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477830437911.csv</t>
+          <t>vSAT_stims-1650996120570603.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_22/participant_22_task_orders.xlsx
+++ b/participants/participant_22/participant_22_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961167546022" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996120474577" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996120474577" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961205385995" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961206026" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687165129304" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687189706054" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168718971574" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687190329437" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168719110129" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961167225628.csv</t>
+          <t>go_stims-1651168716473123.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961167385623.csv</t>
+          <t>GNG_stims-16511687164948964.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961167385623.csv</t>
+          <t>go_stims-16511687164969616.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961167546022.csv</t>
+          <t>GNG_stims-1651168716511974.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961178265638.csv</t>
+          <t>OB-16511687172089832.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961201785607.csv</t>
+          <t>OB-16511687170086288.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961177706017.csv</t>
+          <t>ZB-match_6-1651168716940146.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961175945609.csv</t>
+          <t>TB-1651168718953321.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650996118050599.csv</t>
+          <t>TB-16511687181379597.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961186106014.csv</t>
+          <t>ZB-match_6-1651168716639824.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-165099612045056.csv</t>
+          <t>OB-16511687171395278.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650996118322566.csv</t>
+          <t>TB-1651168718493344.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961198586001.csv</t>
+          <t>ZB-match_9-1651168716957474.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961205065947.csv</t>
+          <t>MM_stims-16511687189861693.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961204825668.csv</t>
+          <t>ZM_stims-16511687189735703.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961205225663.csv</t>
+          <t>MM_stims-16511687190166318.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961205065947.csv</t>
+          <t>ZM_stims-16511687189861693.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961205385995.csv</t>
+          <t>MM_stims-1651168719031942.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961205225663.csv</t>
+          <t>ZM_stims-1651168719017602.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961205865636.csv</t>
+          <t>vSAT_stims-1651168719095117.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961205546007.csv</t>
+          <t>SAT_stims-16511687190369403.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961205385995.csv</t>
+          <t>SAT_stims-16511687190471952.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996120570603.csv</t>
+          <t>vSAT_stims-16511687190631936.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_22/participant_22_task_orders.xlsx
+++ b/participants/participant_22/participant_22_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687165129304" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687189706054" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168718971574" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687190329437" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168719110129" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555409842997" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255543420257" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-165125554342726" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255543485259" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555435632565" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168716473123.csv</t>
+          <t>go_stims-16512555409483.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687164948964.csv</t>
+          <t>GNG_stims-16512555409673.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687164969616.csv</t>
+          <t>go_stims-16512555409693.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168716511974.csv</t>
+          <t>GNG_stims-16512555409832993.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687172089832.csv</t>
+          <t>TB-16512555433572595.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687170086288.csv</t>
+          <t>ZB-match_0-16512555410492992.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651168716940146.csv</t>
+          <t>OB-16512555419051542.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1651168718953321.csv</t>
+          <t>ZB-match_4-16512555411383002.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687181379597.csv</t>
+          <t>TB-16512555434012582.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651168716639824.csv</t>
+          <t>OB-16512555418034728.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511687171395278.csv</t>
+          <t>ZB-match_1-16512555410292997.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1651168718493344.csv</t>
+          <t>TB-16512555429062564.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-1651168716957474.csv</t>
+          <t>OB-16512555416654696.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687189861693.csv</t>
+          <t>MM_stims-16512555434522576.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687189735703.csv</t>
+          <t>ZM_stims-16512555434302685.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687190166318.csv</t>
+          <t>MM_stims-16512555434682567.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687189861693.csv</t>
+          <t>ZM_stims-16512555434532619.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168719031942.csv</t>
+          <t>MM_stims-16512555434842584.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168719017602.csv</t>
+          <t>ZM_stims-16512555434692585.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168719095117.csv</t>
+          <t>vSAT_stims-16512555435482645.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687190369403.csv</t>
+          <t>SAT_stims-1651255543515258.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687190471952.csv</t>
+          <t>vSAT_stims-16512555435312572.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687190631936.csv</t>
+          <t>SAT_stims-1651255543491261.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_22/participant_22_task_orders.xlsx
+++ b/participants/participant_22/participant_22_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555409842997" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255543420257" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-165125554342726" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255543485259" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555435632565" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889742837493" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515889743350277" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515889743370278" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515889743985598" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515889762171862" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555409483.csv</t>
+          <t>vSAT_stims-16515889742677402.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555409673.csv</t>
+          <t>SAT_stims-16515889741997354.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555409693.csv</t>
+          <t>vSAT_stims-16515889742517364.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555409832993.csv</t>
+          <t>SAT_stims-16515889742207344.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555433572595.csv</t>
+          <t>go_stims-16515889742907357.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512555410492992.csv</t>
+          <t>GNG_stims-1651588974315739.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555419051542.csv</t>
+          <t>go_stims-16515889743177514.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512555411383002.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TB-16512555434012582.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OB-16512555418034728.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_1-16512555410292997.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-16512555429062564.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-16512555416654696.csv</t>
+          <t>GNG_stims-1651588974334025.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +592,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555434522576.csv</t>
+          <t>MM_stims-16515889743650274.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555434302685.csv</t>
+          <t>ZM_stims-16515889743420284.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555434682567.csv</t>
+          <t>MM_stims-16515889743810246.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555434532619.csv</t>
+          <t>ZM_stims-1651588974367026.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555434842584.csv</t>
+          <t>MM_stims-16515889743965578.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555434692585.csv</t>
+          <t>ZM_stims-1651588974382025.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555435482645.csv</t>
+          <t>OB-16515889755591323.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255543515258.csv</t>
+          <t>ZB-match_3-1651588974732189.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555435312572.csv</t>
+          <t>ZB-match_6-16515889750929394.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255543491261.csv</t>
+          <t>TB-16515889762015626.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZB-match_9-16515889750535989.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TB-16515889760729644.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OB-16515889752536712.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TB-16515889761036978.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515889753912845.csv</t>
         </is>
       </c>
     </row>
